--- a/crm2/data/schedule_2025_2_cohort.xlsx
+++ b/crm2/data/schedule_2025_2_cohort.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\ProjectCRM\crm2\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\crm\crm2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074F3556-21AE-49BA-A91A-83115633F1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{864ACA73-44E8-4DE3-A97A-BD1DB3D95E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A6D14E0E-4D6A-4D8A-BF55-A0F0A0859D24}"/>
+    <workbookView xWindow="-49785" yWindow="0" windowWidth="17280" windowHeight="15585" xr2:uid="{A6D14E0E-4D6A-4D8A-BF55-A0F0A0859D24}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,54 +36,198 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> end_date</t>
+  </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>start_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> end_date</t>
-  </si>
-  <si>
     <t>topic_code</t>
   </si>
   <si>
     <t xml:space="preserve">title </t>
   </si>
   <si>
+    <t>ПТГ на основе метода работы с 4х-мерным пространством;</t>
+  </si>
+  <si>
+    <t>ШАС-2</t>
+  </si>
+  <si>
+    <t>ПТГ на основе усиленного метода работы с 4х-мерным пространством;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ПТГ-2</t>
+  </si>
+  <si>
+    <t>ПТГ-3</t>
+  </si>
+  <si>
+    <t>ПТГ-4</t>
+  </si>
+  <si>
+    <t>ШАС-3</t>
+  </si>
+  <si>
+    <t>ШАС-4</t>
+  </si>
+  <si>
+    <t>ШАС-5</t>
+  </si>
+  <si>
+    <t>ЩАС-6</t>
+  </si>
+  <si>
+    <t>ШАС-7</t>
+  </si>
+  <si>
+    <t>Основы психонетических практик(продолжение)</t>
+  </si>
+  <si>
+    <t>Работа с сопротивлениями</t>
+  </si>
+  <si>
+    <t>Введение в работу с Протоформами и не-формами</t>
+  </si>
+  <si>
+    <t>Морфинг. Работа с переходами</t>
+  </si>
+  <si>
+    <t>Работа с состояниями. Смысловые переживания</t>
+  </si>
+  <si>
+    <t>Заключение ШАС</t>
+  </si>
+  <si>
+    <t>Смысловые переживания</t>
+  </si>
+  <si>
+    <t>Работа с вниманием, локальные объемы внимания</t>
+  </si>
+  <si>
+    <t>Субстанциональный слой сознания. Не-восприятие</t>
+  </si>
+  <si>
+    <t>МАСП-1</t>
+  </si>
+  <si>
+    <t>МАСП-2</t>
+  </si>
+  <si>
+    <t>МАСП-3</t>
+  </si>
+  <si>
+    <t>МАСП-4</t>
+  </si>
+  <si>
+    <t>МАСП-5</t>
+  </si>
+  <si>
+    <t>МАСП-6</t>
+  </si>
+  <si>
+    <t>МАСП-7</t>
+  </si>
+  <si>
+    <t>Остановка сознания</t>
+  </si>
+  <si>
+    <t>Тотальность</t>
+  </si>
+  <si>
+    <t>Операции в зонах сознания</t>
+  </si>
+  <si>
+    <t>Заключение</t>
+  </si>
+  <si>
     <t xml:space="preserve">annotation </t>
   </si>
   <si>
-    <t>МАСП-7</t>
-  </si>
-  <si>
-    <t>МАСП-3</t>
-  </si>
-  <si>
-    <t>МАСП-4</t>
-  </si>
-  <si>
-    <t>МАСП-5</t>
-  </si>
-  <si>
-    <t>МАСП-6</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
+    <t xml:space="preserve">Интегральные матрицы для всех уровней живой системы человек за все воплощения;Работа с Родом; Центры сознания; Эндокринные системы для каждого квантового уровня; Уровни искажения схем поведения; Матрицы ДЕЛА; гармонзация души; гармонизация сознания; гармонизация духа; Аспект троичности; Кундалини; Время; Мозг; </t>
+  </si>
+  <si>
+    <t>ВМ. 4 фазы.Элементы разнесенной ВМ. Объемная дКВ. Визуальная дКВ при закрытых глазах. Управление неравновесными перцептивными средами. «Смысловые» практики. Программы-тренажеры</t>
+  </si>
+  <si>
+    <t xml:space="preserve">работа с историей развития живой системы человек в тотальности; психика; многуровневая карма; время; ДАО человека; Сознание; Отработка причинно-следственных связей (ПСС); Семья; единое поле социальной группы; Гармония Веса (эндокринное заболевание); плохой сон; </t>
+  </si>
+  <si>
+    <t>Работа с помехами. Деконцентрация внимания. Концентрация внимания.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Работа с матриами ковида, онкологии, AccBars, Позвоночник, эндокринная система; система меридианов </t>
+  </si>
+  <si>
+    <t>О протоформах и не-формах.Разнесенная ВМ. Различие процесса ВМ и продуктов ВМ. Абстрактная пло- скость зрения.Абстрактное поле слуха. Абстрактный ход времени и абстрактная длительность. Абстрактная соматика и абстрактная энергия. Расширение НФ и ПФ на основные модальности, ТотальнаядКВ; Хроно-дКВ; ЛОВ;</t>
+  </si>
+  <si>
+    <t>Морфинг (ААС) на примере куба Неккера; Управление неравновесными перцептивными средами; дКВ; Протоформы и не-формы; Работа с вниманием;</t>
+  </si>
+  <si>
+    <t>Ознакомление с паузами как переход к разнесенной ВМ в пульсирующем режиме; Протоформы и не-формы	;</t>
+  </si>
+  <si>
+    <t>Разнесенная ВМ в пульсирующем режиме; Формирование намерения из чистой активности, паузы и ментальной тишины; Перемещение по зонам сознания; Абстрактное движение; Абстрактный морфинг; Расширение актуального настоящего. Формирование рефлексивной позиции; Наблюдение спонтанных переходов и целенаправленные переходы от бодрствования ко сну и наоборот (введение в практику); Целенаправленный переход в сон;</t>
+  </si>
+  <si>
+    <t>Абстактная плоскость зрения;  Поворот АПЗ; Абстрактный ход времени;  Дифференцирующий процесс; Формирование тишины как объекта; Перевод пространственного внимания во временное; «Текучесть» и «светимость»; «Черные цвета»;</t>
+  </si>
+  <si>
+    <t>Локальный объем внимания (ЛОВ); Пустое пространство; Локальный объем внимания, формируемый из KB, дКВ и АПЗ; Формы объемного внимания; Циклы объемного внимания; Перенос внимания за пределы поля визуального восприятия; Формирование «фигур внимания» в поле зрения; Работа с не-формами, смысловыми переживаниями; Работа с паузами и длительностями; Различение действия из ментальной тишины (МТ) и пауз;</t>
   </si>
   <si>
     <t>Не-восприятие; 2.3. Работа с прото-формами, не-формами, смысловые практики; Формирование объемных фигур внимания; Превращение объекта внимания в фигуру внимания;Различение действия из ментальной тишины (МТ) и пауз; Работа с локальными объемами внимания;</t>
@@ -101,29 +245,363 @@
     <t xml:space="preserve">Перемещение точки «Я» по телу, за пределы тела, сквозь АПЗ; </t>
   </si>
   <si>
-    <t>Субстанциональный слой сознания. Не-восприятие</t>
-  </si>
-  <si>
-    <t>Остановка сознания</t>
-  </si>
-  <si>
-    <t>Тотальность</t>
-  </si>
-  <si>
-    <t>Операции в зонах сознания</t>
-  </si>
-  <si>
-    <t>Заключение</t>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2025-09-13</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2025-09-14</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2025-10-25</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2025-10-26</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2025-12-06</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2025-12-07</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2026-01-17</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2026-01-18</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2026-02-28</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2026-03-01</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2026-04-11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2026-04-12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2026-05-23</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2026-05-24</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2026-07-04</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2026-07-05</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2026-08-15</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2026-08-16</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2026-09-26</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2026-09-27</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2026-11-07</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2026-11-08</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2026-12-19</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2026-12-20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2027-01-30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2027-01-31</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2027-03-13</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2027-03-14</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2027-04-24</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2027-04-25</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2027-06-05</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2027-06-06</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +624,12 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -155,7 +639,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -178,25 +662,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -205,9 +708,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,143 +1054,369 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186F4BE6-3853-4AB3-8AC2-9FF2FF99EA13}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="46.21875" customWidth="1"/>
-    <col min="6" max="6" width="91.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="56.21875" customWidth="1"/>
+    <col min="6" max="6" width="98" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="5">
-        <v>45920</v>
-      </c>
-      <c r="C2" s="5">
-        <v>45921</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="5">
-        <v>45962</v>
-      </c>
-      <c r="C3" s="5">
-        <v>45963</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="5">
-        <v>46004</v>
-      </c>
-      <c r="C4" s="5">
-        <v>46005</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="5">
-        <v>46046</v>
-      </c>
-      <c r="C5" s="5">
-        <v>46047</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="5">
-        <v>46088</v>
-      </c>
-      <c r="C6" s="5">
-        <v>46089</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>20</v>
+      <c r="B17" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F8" location="_Toc411703782" display="_Toc411703782" xr:uid="{CD28EB3E-2E54-41A9-8CFE-79ECE74B5246}"/>
+    <hyperlink ref="F10" location="_Toc419288607" display="_Toc419288607" xr:uid="{ECD3CE0F-C0DD-4719-AAE5-137342A821DF}"/>
+    <hyperlink ref="F12" location="_Toc433621939" display="_Toc433621939" xr:uid="{CF701318-4320-4FAB-9222-054703D509F2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>